--- a/biology/Origine et évolution du vivant/Platyhelminthes_(classification_phylogénétique)/Platyhelminthes_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Platyhelminthes_(classification_phylogénétique)/Platyhelminthes_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platyhelminthes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Platyhelminthes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Platyhelminthes (Plathelminthes, ou Vers plats), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Platyhelminthes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Platyhelminthes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1108,7 +1122,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Platyhelminthes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Platyhelminthes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1126,7 +1140,9 @@
           <t>Débat scientifique relatif à la phylogénie des Platyhelminthes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La polyphylie des Plathelminthes dans leur ancienne définition (et la paraphylie des Turbellariés) semble aujourd'hui avérée : les Acoelomorpha (Nemertodermatida et Acoela) en ont été détachés et sont aujourd'hui placés à la base des animaux bilatériens, ou au sein des Deutérostomiens.
 Dans l'ensemble restant, solidement ancré au sein des Lophotrochozoa, les Catenulida sont le groupe frère de tous les autres vers plats.
@@ -1141,7 +1157,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Platyhelminthes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Platyhelminthes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1161,20 +1177,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Karolina Larsson (2008) « Taxonomy and Phylogeny of Catenulida (Platyhelminthes) with Emphasis on the Swedish Fauna », Acta Universitatis Upsaliensis, Digital Comprehensive Summaries of Uppsala Dissertations from the Faculty of Science and Technology 395, 48 pages,  (ISBN 978-91-554-7097-5)
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Karolina Larsson (2008) « Taxonomy and Phylogeny of Catenulida (Platyhelminthes) with Emphasis on the Swedish Fauna », Acta Universitatis Upsaliensis, Digital Comprehensive Summaries of Uppsala Dissertations from the Faculty of Science and Technology 395, 48 pages,  (ISBN 978-91-554-7097-5)
 Joong-Ki Park, Kyu-Heon Kim, Seokha Kang, Won Kim, Keeseon S. Eom et D.T.J. Littlewood (2007) « A common origin of complex life cycles in parasitic flatworms: evidence from the complete mitochondrial genome of Microcotyle sebastis (Monogenea: Platyhelminthes) », BMC Evolutionary Biology 7:11
 Jaume Baguñà et Marta Riutort (2004) « « Molecular phylogeny of the Platyhelminthes »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) », Can. J. Zool. 82, pp. 168–193
-Jean-Lou Justine (1998) « Systématique des grands groupes de Plathelminthes parasites : quoi de neuf ? », Bulletin de la Société Française de Parasitologie, 16, pp. 34-52
-Sources internet
-Mikko's Phylogeny Archive
+Jean-Lou Justine (1998) « Systématique des grands groupes de Plathelminthes parasites : quoi de neuf ? », Bulletin de la Société Française de Parasitologie, 16, pp. 34-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Platyhelminthes_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Platyhelminthes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mikko's Phylogeny Archive
 The Taxonomicon
 Palaeos.org
 Micro*scope
 NCBI Taxonomy Browser
-The Tree of Life Web Project
-Liens internes
-Arbre phylogénétique
+The Tree of Life Web Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Platyhelminthes_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Platyhelminthes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
